--- a/SPR_Utils/ClickTrainLongTermFigure/Species/Species_CTLConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Species/Species_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA3F7CE-3D46-4E18-8D9B-BFD560966F84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F5A96-F41A-47D7-87D3-7572EDA5BE5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="129">
   <si>
     <t>paradigm</t>
   </si>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000, 3000, 3000, 3000, 3000, 3000.3, 2990.6, 2990.6, 2992.3, 2991.9, 2992.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3997.7, 3996.8, 3997.2, 3995, 3997, 4010.1, 3986.4, 3988.8, 3988.6, 3988.2, 3987.9,3999.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,48 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Reg6-6o09-u/10, Reg6-6o09-u/25, Reg6-6o09-u/50, Reg6-6o09-u/100, Reg6-6o09-u/200, Reg6-6o09-Control, Reg8-8o12-u/10, Reg8-8o12-u/25, Reg8-8o12-u/50, Reg8-8o12-u/100, Reg8-8o12-u/200, Reg8-8o12-Control </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reg2-2o03-u/10, Reg2-2o03-u/25, Reg2-2o03-u/50, Reg2-2o03-u/100, Reg2-2o03-u/200, Reg2-2o03-Control, Reg4-4o06-u/10, Reg4-4o06-u/25, Reg4-4o06-u/50, Reg4-4o06-u/100, Reg4-4o06-u/200, Reg4-4o06-Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reg6-9-u/10, Reg6-9-u/25, Reg6-9-u/50, Reg6-9-u/100, Reg6-9-u/200, Reg6-9-Control, Reg8-12-u/10, Reg8-12-u/25, Reg8-12-u/50,  Reg8-12-u/100, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reg8-12-u/200, Reg8-12-Control</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reg2-3-u/10, Reg2-3-u/25, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reg2-3-u/50, Reg2-3-u/100, Reg2-3-u/200, Reg2-3-Control, Reg4-6-u/10, Reg4-6-u/25, Reg4-6-u/50, Reg4-6-u/100, Reg4-6-u/200, Reg4-6-Control</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.03,2.03,2.03,2.03,2.03,2.03,4.06,4.06,4.06,4.06,4.06,4.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +458,74 @@
   </si>
   <si>
     <t>0.8,-0.1, 2,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg2-3-u_10, Reg2-3-u_25, Reg2-3-u_50, Reg2-3-u_100, Reg2-3-u_200, Reg2-3-Control, Reg4-6-u_10, Reg4-6-u_25, Reg4-6-u_50, Reg4-6-u_100, Reg4-6-u_200, Reg4-6-Control</t>
+  </si>
+  <si>
+    <t>Reg6-9-u_10, Reg6-9-u_25, Reg6-9-u_50, Reg6-9-u_100, Reg6-9-u_200, Reg6-9-Control, Reg8-12-u_10, Reg8-12-u_25, Reg8-12-u_50,  Reg8-12-u_100, Reg8-12-u_200, Reg8-12-Control</t>
+  </si>
+  <si>
+    <t>Reg2-2o03-u_10, Reg2-2o03-u_25, Reg2-2o03-u_50, Reg2-2o03-u_100, Reg2-2o03-u_200, Reg2-2o03-Control, Reg4-4o06-u_10, Reg4-4o06-u_25, Reg4-4o06-u_50, Reg4-4o06-u_100, Reg4-4o06-u_200, Reg4-4o06-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg6-6o09-u_10, Reg6-6o09-u_25, Reg6-6o09-u_50, Reg6-6o09-u_100, Reg6-6o09-u_200, Reg6-6o09-Control, Reg8-8o12-u_10, Reg8-8o12-u_25, Reg8-8o12-u_50, Reg8-8o12-u_100, Reg8-8o12-u_200, Reg8-8o12-Control </t>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_Str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseICI_2ms, BaseICI_4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseICI_6ms, BaseICI_8ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseICI_2ms, BaseICI_4ms,BaseICI_6ms, BaseICI_8ms,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseICI_2ms_Ord,BaseICI_2ms_Rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseICI_4ms_Ord,BaseICI_4ms_Rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000, 3000, 3000, 3000, 3000, 3000.3, 2990.6, 2990.6, 2992.3, 2991.9, 2992.2,3002.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #00FF00, #0000FF, #000000, #AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,4,3,2,1;12,11,10,9,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,1;6,5,4;9,8,7;12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #00FF00, #0000FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,9,11,3,5;2,8,10,12,4,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,14 +557,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -591,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,13 +626,16 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -899,16 +916,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.21875" style="7" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="7" customWidth="1"/>
@@ -925,10 +942,14 @@
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="1"/>
     <col min="18" max="18" width="16.21875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="25.33203125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="30.33203125" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -948,50 +969,59 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>111</v>
+      <c r="T1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1007,25 +1037,25 @@
         <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="N2" s="1">
         <v>0.1</v>
@@ -1036,21 +1066,30 @@
       <c r="P2" s="1">
         <v>2</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="10">
         <v>0.05</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1064,25 +1103,25 @@
         <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="N3" s="1">
         <v>0.1</v>
@@ -1093,21 +1132,30 @@
       <c r="P3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <v>0.05</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1120,28 +1168,28 @@
         <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="N4" s="1">
         <v>0.1</v>
@@ -1152,21 +1200,30 @@
       <c r="P4" s="1">
         <v>2</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <v>0.05</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
@@ -1177,28 +1234,28 @@
         <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="N5" s="1">
         <v>0.1</v>
@@ -1209,21 +1266,30 @@
       <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>0.05</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1239,25 +1305,25 @@
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="N6" s="1">
         <v>0.1</v>
@@ -1268,21 +1334,21 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="10">
         <v>0.05</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1296,25 +1362,25 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N7" s="1">
         <v>0.1</v>
@@ -1325,21 +1391,21 @@
       <c r="P7" s="1">
         <v>2</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="10">
         <v>0.05</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1353,25 +1419,25 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1">
         <v>0.1</v>
@@ -1382,21 +1448,21 @@
       <c r="P8" s="1">
         <v>2</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="10">
         <v>0.05</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1410,25 +1476,25 @@
         <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N9" s="1">
         <v>0.1</v>
@@ -1439,55 +1505,55 @@
       <c r="P9" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="10">
         <v>0.05</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N10" s="1">
         <v>0.1</v>
@@ -1498,53 +1564,62 @@
       <c r="P10" s="1">
         <v>2</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="10">
         <v>0.05</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N11" s="1">
         <v>0.1</v>
@@ -1555,53 +1630,62 @@
       <c r="P11" s="1">
         <v>2</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="10">
         <v>0.05</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N12" s="1">
         <v>0.1</v>
@@ -1612,53 +1696,62 @@
       <c r="P12" s="1">
         <v>2</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="10">
         <v>0.05</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N13" s="1">
         <v>0.1</v>
@@ -1669,55 +1762,64 @@
       <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="10">
         <v>0.05</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N14" s="1">
         <v>0.1</v>
@@ -1728,53 +1830,62 @@
       <c r="P14" s="1">
         <v>2</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="10">
         <v>0.05</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N15" s="1">
         <v>0.1</v>
@@ -1785,53 +1896,62 @@
       <c r="P15" s="1">
         <v>2</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="10">
         <v>0.05</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N16" s="1">
         <v>0.1</v>
@@ -1842,53 +1962,62 @@
       <c r="P16" s="1">
         <v>2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="10">
         <v>0.05</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N17" s="1">
         <v>0.1</v>
@@ -1899,17 +2028,26 @@
       <c r="P17" s="1">
         <v>2</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="10">
         <v>0.05</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
   </sheetData>

--- a/SPR_Utils/ClickTrainLongTermFigure/Species/Species_CTLConfig.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Species/Species_CTLConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F5A96-F41A-47D7-87D3-7572EDA5BE5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56814F6-05AB-4FE7-AAD6-B90F7939A314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="135">
   <si>
     <t>paradigm</t>
   </si>
@@ -527,12 +527,37 @@
   <si>
     <t>1,7,9,11,3,5;2,8,10,12,4,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFTPlotWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,6 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -916,40 +942,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="16.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="25.33203125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.33203125" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1"/>
+    <col min="19" max="19" width="16.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.875" style="1"/>
+    <col min="21" max="21" width="25.375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="21.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="30.375" style="7" customWidth="1"/>
+    <col min="24" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -972,56 +999,62 @@
         <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1039,57 +1072,63 @@
       <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>2</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>0.05</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="X2" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1105,57 +1144,63 @@
       <c r="G3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>0.1</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>10</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>0.05</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="X3" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1173,57 +1218,63 @@
       <c r="G4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.1</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>10</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>2</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>0.05</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="X4" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
@@ -1239,57 +1290,63 @@
       <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0.1</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>10</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>0.05</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="X5" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1307,48 +1364,54 @@
       <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.1</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>10</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>2</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>0.05</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="X6" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1365,47 +1428,53 @@
         <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0.1</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>10</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>2</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>0.05</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="X7" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1422,47 +1491,53 @@
         <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.1</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>10</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>2</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>0.05</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="X8" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
@@ -1479,47 +1554,53 @@
         <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0.1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>10</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>0.05</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="X9" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1538,56 +1619,62 @@
         <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>0.1</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>10</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>2</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>0.05</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="W10" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="X10" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>112</v>
       </c>
@@ -1604,56 +1691,62 @@
         <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>0.1</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>10</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>2</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>0.05</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="X11" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
         <v>113</v>
       </c>
@@ -1670,56 +1763,62 @@
         <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>0.1</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>10</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>2</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>0.05</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="X12" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="7" t="s">
         <v>114</v>
       </c>
@@ -1736,56 +1835,62 @@
         <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>0.1</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>10</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>0.05</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="X13" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1804,56 +1909,62 @@
         <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>0.1</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>10</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>2</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>0.05</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="X14" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
@@ -1870,56 +1981,62 @@
         <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>0.1</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>10</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>2</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>0.05</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="W15" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="X15" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
@@ -1936,56 +2053,62 @@
         <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>0.1</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>10</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>2</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>0.05</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="W16" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="X16" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
@@ -2002,52 +2125,58 @@
         <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0.1</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>10</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>2</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <v>0.05</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="W17" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="X17" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
     </row>
   </sheetData>
